--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravi\Desktop\CDAC_VITA\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\#Project\-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0107004-C2A8-434D-8711-D83FC5B049B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F5CEF9-A217-408E-9986-8D6E19E3D77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AD1B83A0-DED4-492F-8D25-D1838C2301F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD1B83A0-DED4-492F-8D25-D1838C2301F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="73">
   <si>
     <t>Project Name:</t>
   </si>
@@ -75,9 +75,6 @@
     <t>BirthDate</t>
   </si>
   <si>
-    <t>MemberTypeID</t>
-  </si>
-  <si>
     <t xml:space="preserve">int </t>
   </si>
   <si>
@@ -126,18 +123,9 @@
     <t>OrderItemsTable</t>
   </si>
   <si>
-    <t>Membership Table</t>
-  </si>
-  <si>
-    <t>TypeName</t>
-  </si>
-  <si>
     <t>DiscountPercentage</t>
   </si>
   <si>
-    <t>Authentication Table</t>
-  </si>
-  <si>
     <t>Invoice Table</t>
   </si>
   <si>
@@ -201,15 +189,9 @@
     <t>referencing order table</t>
   </si>
   <si>
-    <t>referencing Membership table</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>PK FK</t>
-  </si>
-  <si>
     <t>referencing users</t>
   </si>
   <si>
@@ -222,10 +204,46 @@
     <t>should be encrypted</t>
   </si>
   <si>
-    <t>PK for this table and FK for user table</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto-increment / referencing Order table</t>
+  </si>
+  <si>
+    <t>either &lt; 0 or &gt; 0</t>
+  </si>
+  <si>
+    <t>PK, FK</t>
+  </si>
+  <si>
+    <t>Offer Table</t>
+  </si>
+  <si>
+    <t>Auto-increment /referencing Offer table</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>varcahr</t>
+  </si>
+  <si>
+    <t>Order-Placed/In-Transit/Delivered</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>0 / max value is 5</t>
   </si>
 </sst>
 </file>
@@ -294,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -371,11 +389,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -409,6 +438,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,29 +755,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B61CA335-D8C4-4088-A73B-E282777217A3}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" customWidth="1"/>
-    <col min="4" max="4" width="11.453125" customWidth="1"/>
-    <col min="5" max="5" width="21.7265625" customWidth="1"/>
-    <col min="6" max="6" width="28.36328125" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="78.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="26.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="9" t="s">
@@ -753,13 +785,13 @@
       </c>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="1" t="s">
@@ -767,7 +799,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -775,9 +807,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -785,7 +817,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -805,896 +837,879 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6">
         <v>50</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6">
         <v>50</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="C11" s="6">
+        <v>200</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="6">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="C19" s="6">
         <v>50</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="6">
-        <v>100</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="6">
-        <v>200</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="6">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="6">
+        <v>200</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="6">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="E27" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="6">
+        <v>50</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="6">
-        <v>50</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="6">
-        <v>50</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="C33" s="6">
+        <v>50</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="6">
-        <v>200</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="6">
+        <v>200</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="13"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
+      <c r="B59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="E59" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
+      <c r="E65" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="6">
-        <v>50</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
+      <c r="B68" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="6">
-        <v>50</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F62" s="6"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="6">
-        <v>50</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F68" s="6"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="B69" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="6"/>
-      <c r="D69" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>61</v>
-      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="14" t="s">
         <v>66</v>
       </c>
+      <c r="E72" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A65:F65"/>
+  <mergeCells count="13">
+    <mergeCell ref="A62:F62"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A57:F57"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
